--- a/xlsx/OOPSLA_intext.xlsx
+++ b/xlsx/OOPSLA_intext.xlsx
@@ -29,7 +29,7 @@
     <t>Object-Oriented Programming</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_OOPSLA</t>
+    <t>政策_政策_维基百科_OOPSLA</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%8D%8F%E4%BC%9A</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD_(%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波特蘭 (奧勒岡州)</t>
+    <t>波特兰 (奥勒冈州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%BE%E8%AE%A1%E6%A8%A1%E5%BC%8F_(%E8%AE%A1%E7%AE%97%E6%9C%BA)</t>
